--- a/src/informesGenerados/HurtoListado.xlsx
+++ b/src/informesGenerados/HurtoListado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Unidad Organizativa</t>
   </si>
@@ -49,19 +49,58 @@
     <t>CDNT</t>
   </si>
   <si>
-    <t>DVSM</t>
-  </si>
-  <si>
-    <t>2019-09-09</t>
-  </si>
-  <si>
-    <t>Entrada de SMS con contenido CR Calle 206 y 21. Rpto. Atabey</t>
-  </si>
-  <si>
-    <t>Playa</t>
-  </si>
-  <si>
-    <t>DVSM-09-19-0016</t>
+    <t>DTSC</t>
+  </si>
+  <si>
+    <t>2020-10-06</t>
+  </si>
+  <si>
+    <t>Llamada de amenaza de Bomba en el CAT Aguilera No. 401</t>
+  </si>
+  <si>
+    <t>Santiago de Cuba</t>
+  </si>
+  <si>
+    <t>17488/20</t>
+  </si>
+  <si>
+    <t>DTSC-10-20-0106</t>
+  </si>
+  <si>
+    <t>DVLH</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>Fractura de parabrisa delantero de un auto, por agresión de una ciudadana Calle Águila, entre Dragones y Barcelona</t>
+  </si>
+  <si>
+    <t>Centro Habana</t>
+  </si>
+  <si>
+    <t>65472/20</t>
+  </si>
+  <si>
+    <t>DVLH-12-20-0228</t>
+  </si>
+  <si>
+    <t>DTSR</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>Individuo que fractura el cristal de la puerta de entrada Calle 10 de Octubre. No. 1251,  entre Carmen y Vista Alegre</t>
+  </si>
+  <si>
+    <t>Díez de Octubre</t>
+  </si>
+  <si>
+    <t>67102/20</t>
+  </si>
+  <si>
+    <t>DVLH-12-20-0234</t>
   </si>
 </sst>
 </file>
@@ -94,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -134,6 +173,30 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -158,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -173,6 +236,15 @@
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="justify" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -486,7 +558,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -551,7 +623,9 @@
       <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
@@ -566,7 +640,73 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
